--- a/intencoes.xlsx
+++ b/intencoes.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brunofilipe.lobo\Documents\Code\realvidaseguros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76741454-B7D7-492E-89DC-5CD9A80EAF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675348C-9CEA-40CF-979A-820E7A610CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IdentifEntidade" sheetId="1" r:id="rId1"/>
+    <sheet name="IdentifAlternativa" sheetId="2" r:id="rId2"/>
+    <sheet name="ApolAtivas" sheetId="3" r:id="rId3"/>
+    <sheet name="Anexos" sheetId="5" r:id="rId4"/>
+    <sheet name="IDTemplates" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="25">
   <si>
     <t>NA</t>
   </si>
@@ -153,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +274,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB1680-6FDB-4AAC-84B1-7D0AFBC3FE74}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,18 +625,9 @@
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -639,35 +643,8 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -683,35 +660,8 @@
       <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -727,35 +677,8 @@
       <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -771,35 +694,8 @@
       <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -815,35 +711,8 @@
       <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -859,35 +728,8 @@
       <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -903,35 +745,8 @@
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -947,35 +762,8 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -991,35 +779,8 @@
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1035,35 +796,8 @@
       <c r="E10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1079,35 +813,8 @@
       <c r="E11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1123,35 +830,8 @@
       <c r="E12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1167,35 +847,8 @@
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1211,31 +864,739 @@
       <c r="E14" s="9" t="s">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517D2584-37BB-4138-832B-A2A9203BD88F}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC837E5-2679-46E3-8AD8-11CE1BD38E93}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425FF8AC-BB7D-41CF-A3FD-5684B3F073C3}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="9">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59DE66B-4BFE-4DCA-B140-7BD69D8D520A}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9">
         <v>12</v>
       </c>
     </row>

--- a/intencoes.xlsx
+++ b/intencoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brunofilipe.lobo\Documents\Code\realvidaseguros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675348C-9CEA-40CF-979A-820E7A610CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="37">
   <si>
     <t>NA</t>
   </si>
@@ -111,17 +111,87 @@
     <t>Acidentes Pessoais</t>
   </si>
   <si>
-    <t>ID Template (Ver Sheet Templates)</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Exmo(a). Senhor(a),
+Para reforço da apólice solicitamos envio de pedido por esta via, acompanhado do respectivo comprovativo de pagamento. 
+O IBAN da Real Vida a considerar é PT50 0033 0000 45453303624 05.</t>
+  </si>
+  <si>
+    <t>Exmo(a). Senhor(a),
+Acusamos a receção do seu pedido cujo teor mereceu a nossa melhor atenção.
+Em resposta ao seu pedido e para procedermos de acordo, solicitamos o envio de pedido de alteração de dados assinado pelo Tomador de Seguro. 
+O impresso anexo pode ser utilizado para o efeito e devolvido por esta via, junto com a cópia do cartão de cidadão para validação de assinaturas.</t>
+  </si>
+  <si>
+    <t>Acusamos a receção do seu pedido cujo teor mereceu a nossa melhor atenção.
+Para atualização do capital deve ser remetido o comprovativo de capital em dívida, o qual poderá ser um dos abaixo indicados:
+- Declaração Capital em Dívida emitida pelo Banco
+- Autorização expressa do Banco (ex. e-mail do Gestor)
+- Extracto bancário onde conste(m) o(s) capital(ais) em dívida do(s) contrato(s) de crédito(s) associado(s) à apólice (apenas aplicável se o número de empréstimo no extrato estiver associado à apólice)</t>
+  </si>
+  <si>
+    <t>Em resposta ao seu pedido, somos a informar que deverá enviar pedido formal do e-mail do Tomador de Seguro para info.clientes@realvidaseguros.pt, acompanhado de comprovativo do capital em dívida.
+Como documento comprovativo de capital seguro poderá enviar um dos seguintes documentos:
+- Declaração Capital em Dívida emitida pelo Banco
+- Autorização expressa do Banco (ex. e-mail do Gestor)
+- Extracto bancário onde conste(m) o(s) capital(ais) em dívida do(s) contrato(s) de crédito(s) associado(s) à apólice (apenas aplicável se o número de empréstimo no extrato estiver associado à apólice)</t>
+  </si>
+  <si>
+    <t>Exmo(a). Senhor(a),
+Em virtude de não termos um endereço de e-mail associado à ficha de cliente, não é possível o envio de informação confidencial por esta via.
+Posto o acima, para procedermos de acordo, solicitamos o envio de pedido de alteração de dados assinado pelo Tomador de Seguro. O impresso anexo pode ser utilizado para o efeito e devolvido por esta via. Posteriormente será possível o envio de documentos/informação confidencial por esta via.
+Somos a informar que qualquer pedido, deverá ser formalizado pelo Tomador de Seguro para info.clientes@realvidaseguros.pt.</t>
+  </si>
+  <si>
+    <t>Exmo(a). Senhor(a),
+Em virtude de não nos ser possível identificar o cliente com base nos dados facultados, solicitamos que nos indique o NIF ou nr da apólice em questão.
+Adicionalmente solicitamos o envio do pedido de alteração de dados (em anexo) assinado pelo Tomador de Seguro e acompanhado de CC, para atualização dos dados e respetivo registo de e-mail em sistema. Após registo do e-mail em sistema será possível o envio de documentos/informação confidencial por esta via.
+Somos a informar que qualquer pedido, deverá ser formalizado pelo Tomador de Seguro para info.clientes@realvidaseguros.pt.</t>
+  </si>
+  <si>
+    <t>Exmo(a). Senhor(a),
+Para resgate das apólices em vigor é necessário envio dos elementos abaixo:
+- Pedido de Resgate (em anexo) assinado pelo Tomador conforme CC;
+- Cópia do cartão de cidadão (ou BI e NIF);
+- Comprovativo de IBAN nominativo, em documento bancário.
+Os documentos podem ser devolvidos por esta via.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exmo(a). Senhor(a),
+O acesso á área reservada de clientes é exclusivo aos tomadores de apólices. 
+O acesso a área reservada de cliente  pode ser efetuado em https://myrealvida.pt/login2 onde deverá escolher - “recuperação de password” - os dados a colocar são o NIF do Tomador e email de Tomador registado na ficha de cliente da Real Vida Seguros.
+Informamos que os documentos da apólice encontram-se disponíveis para consulta e descarregamento, na sua área de cliente, de forma permanente. </t>
+  </si>
+  <si>
+    <t>Exmo(a). Senhor(a),
+Conforme solicitado para alteração do IBAN associado ao débito directo da apólice enviamos, em anexo, impresso SEPA para assinatura e preenchimento. 
+O documento deve ser devolvido por esta via, preenchido e assinado pelo Tomador de Seguro, acompanhado de cópia do cartão de cidadão, para validação de assinatura.</t>
+  </si>
+  <si>
+    <t>Exmo(a). Senhor(a),
+Somos a informar que para efetuar a anulação da sua apólice, deverá utilizar o seguinte link: https://universo.pt/contactos/ ou através do cartão Universo - 308 811 418 (carregar tecla 0 para falar com o operador).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exmo(a). Senhor(a),
+Acusamos a receção do seu e-mail, o qual mereceu a nossa melhor atenção.
+Em resposta, somos a informar que para ativar as coberturas da apólice subscrita, é necessário que nos disponibilize a participação de sinistro, em anexo, integralmente preenchida e devidamente assinada, juntamente com os documentos de apresentação obrigatória mencionados no impresso. </t>
+  </si>
+  <si>
+    <t>Exmo(a). Senhor(a),
+Temos presente a mensagem de correio eletrónico, cujo teor mereceu a nossa melhor atenção.
+Em resposta, somos a informar que para abertura de processo de sinistro e respetiva análise, é necessário que nos disponibilize a participação de sinistro, em anexo, integralmente preenchida e devidamente assinada, juntamente com os documentos de apresentação obrigatória mencionados no impresso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,15 +219,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,12 +254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,21 +321,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -648,16 +697,16 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -665,16 +714,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -682,16 +731,16 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -699,16 +748,16 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -716,16 +765,16 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -733,16 +782,16 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -750,16 +799,16 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -767,16 +816,16 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -784,16 +833,16 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -801,16 +850,16 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -818,16 +867,16 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -835,16 +884,16 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -852,16 +901,16 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -886,7 +935,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -899,10 +948,10 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -910,10 +959,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -921,10 +970,10 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -932,10 +981,10 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -943,10 +992,10 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -954,10 +1003,10 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -965,10 +1014,10 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -976,10 +1025,10 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -987,10 +1036,10 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -998,10 +1047,10 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1009,10 +1058,10 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1020,10 +1069,10 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1031,10 +1080,10 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1062,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>5</v>
@@ -1084,19 +1133,19 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1104,19 +1153,19 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1124,19 +1173,19 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1144,19 +1193,19 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1164,19 +1213,19 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1184,39 +1233,39 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>17</v>
+      <c r="E7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1224,19 +1273,19 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1244,19 +1293,19 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1264,19 +1313,19 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1284,19 +1333,19 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1304,19 +1353,19 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1324,19 +1373,19 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1350,7 +1399,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>10</v>
@@ -1370,7 +1419,7 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1378,7 +1427,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1386,7 +1435,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1394,7 +1443,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1402,7 +1451,7 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1410,7 +1459,7 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1418,7 +1467,7 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1426,7 +1475,7 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1434,7 +1483,7 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1442,7 +1491,7 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1450,7 +1499,7 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1458,7 +1507,7 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1466,7 +1515,7 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1480,124 +1529,121 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>2</v>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>2</v>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>3</v>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
-        <v>4</v>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
-        <v>5</v>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9">
-        <v>6</v>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
-        <v>7</v>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="9">
-        <v>8</v>
+      <c r="B10" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="9">
-        <v>9</v>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
-        <v>10</v>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="9">
-        <v>11</v>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="9">
-        <v>12</v>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
